--- a/data/trans_bre/P52_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P52_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,82</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,49</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,11</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-14,31%</t>
+          <t>72,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-11,03%</t>
+          <t>-25,65%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 35,04</t>
+          <t>-4,17; 7,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-27,91; 10,02</t>
+          <t>-0,92; 13,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-30,84; 13,78</t>
+          <t>-23,8; 5,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 94,1</t>
+          <t>-40,0; 168,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-42,05; 19,03</t>
+          <t>-13,32; 240,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-48,03; 42,43</t>
+          <t>-77,58; 79,23</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,06</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,85</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>26,04</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-19,37%</t>
+          <t>-0,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-10,19%</t>
+          <t>-17,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>81,21%</t>
+          <t>50,49%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,92; 12,27</t>
+          <t>-7,19; 6,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,75; 11,35</t>
+          <t>-11,79; 5,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 44,66</t>
+          <t>-4,29; 9,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,68; 25,97</t>
+          <t>-60,65; 152,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,86; 19,59</t>
+          <t>-54,45; 52,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 219,4</t>
+          <t>-46,83; 270,36</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,65</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,39</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-13,31</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-18,33%</t>
+          <t>-23,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-14,01%</t>
+          <t>63,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-16,42%</t>
+          <t>79,3%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-59,5; 36,06</t>
+          <t>-18,31; 9,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-43,02; 25,74</t>
+          <t>-11,03; 25,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-45,18; 43,09</t>
+          <t>-11,61; 23,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-78,25; 319,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-48,37; 39,51</t>
+          <t>-57,87; 688,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-49,76; 95,07</t>
+          <t>-67,03; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,31</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,54</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,05%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-14,28%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>3,01%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 14,38</t>
+          <t>-3,96; 5,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,19; 3,66</t>
+          <t>-2,6; 8,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 22,54</t>
+          <t>-10,53; 5,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,1; 33,35</t>
+          <t>-35,85; 84,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,51; 5,94</t>
+          <t>-19,06; 78,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 65,2</t>
+          <t>-56,15; 78,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P52_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P52_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,58</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-3,82</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>24,53%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>72,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-25,65%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.273023922256056</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.090387613713483</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.5308673249741</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.4596006061923888</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.1578314941770684</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.03461288194683871</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,17; 7,42</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,92; 13,67</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-23,8; 5,33</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-40,0; 168,09</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-13,32; 240,96</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-77,58; 79,23</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.762272320108961</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-14.55449335644164</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-31.35450395413885</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.2895088041989944</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.2520588200852404</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5127261036205568</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.626275259620016</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>29.53244997407938</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>24.9990775670889</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>2.281849451320995</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.9848528051306077</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.9815819114504445</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,83</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,46</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,78%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-17,24%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>50,49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,19; 6,77</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-11,79; 5,93</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,29; 9,59</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-60,65; 152,23</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-54,45; 52,79</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-46,83; 270,36</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-2.364307683518289</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.871953797762138</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>20.05798000687041</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.2206989489522591</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.03128289485814706</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.7045461987317065</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,19</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,94</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,43</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-23,72%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>63,97%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>79,3%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-13.22933389411208</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-22.44234542766763</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-6.21182322347399</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.7249174271609973</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.2999828570603057</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1586146319730559</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-18,31; 9,36</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,03; 25,49</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,61; 23,97</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-57,87; 688,89</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-67,03; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.610994747730754</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>26.40901655894407</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>45.2653419315904</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.8188911697238777</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.6160186552836283</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.842399024776559</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,77 +775,157 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,8</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,81%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>22,38%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,01%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-2.078581779477208</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-16.38507252914263</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-33.87070342466263</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.2290979129274356</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.1638507252914263</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.3387070342466263</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,96; 5,1</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,6; 8,03</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-10,53; 5,51</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-35,85; 84,22</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-19,06; 78,95</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-56,15; 78,17</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-16.82511137721998</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-65.828314504424</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-68.8495483770148</v>
+      </c>
+      <c r="F11" s="6" t="inlineStr"/>
+      <c r="G11" s="6" t="n">
+        <v>-0.65828314504424</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.688495483770148</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.458376167598923</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-9.63000190587362</v>
+      </c>
+      <c r="F12" s="6" t="inlineStr"/>
+      <c r="G12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>-0.0963000190587362</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.4101803072970034</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.07642787164225</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>8.358497678392791</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.04648183036249671</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.03699165015561198</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2052016355595065</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.490964768743976</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-13.87095687315816</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-15.10709726596321</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.4369812755667871</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.2021847958765186</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2747857436949523</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.088568059844012</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>18.15655011273967</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>25.76152613810718</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.8209911908923836</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.415645168891823</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.8939319250476442</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -921,12 +934,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
